--- a/tests/modules/orcaflex/orcaflex_post_process/results/opp_summary2_master.xlsx
+++ b/tests/modules/orcaflex/orcaflex_post_process/results/opp_summary2_master.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>k:\github\digitalmodel\tests\modules\orcaflex\orcaflex_post_process\orcaflex_test1.sim</t>
+          <t>k:/github/digitalmodel/tests/modules/orcaflex/orcaflex_post_process/orcaflex_test1.sim</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>k:\github\digitalmodel\tests\modules\orcaflex\orcaflex_post_process\orcaflex_test1.sim</t>
+          <t>k:/github/digitalmodel/tests/modules/orcaflex/orcaflex_post_process/orcaflex_test1.sim</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>k:\github\digitalmodel\tests\modules\orcaflex\orcaflex_post_process\orcaflex_test2.sim</t>
+          <t>k:/github/digitalmodel/tests/modules/orcaflex/orcaflex_post_process/orcaflex_test2.sim</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>k:\github\digitalmodel\tests\modules\orcaflex\orcaflex_post_process\orcaflex_test2.sim</t>
+          <t>k:/github/digitalmodel/tests/modules/orcaflex/orcaflex_post_process/orcaflex_test2.sim</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/tests/modules/orcaflex/orcaflex_post_process/results/opp_summary2_master.xlsx
+++ b/tests/modules/orcaflex/orcaflex_post_process/results/opp_summary2_master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,17 +521,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>k:/github/digitalmodel/tests/modules/orcaflex/orcaflex_post_process/orcaflex_test1.sim</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>K:\github\digitalmodel\tests\modules\orcaflex\orcaflex_post_process\orcaflex_test1.sim</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>k:/github/digitalmodel/tests/modules/orcaflex/orcaflex_post_process/orcaflex_test1.sim</t>
+          <t>K:\github\digitalmodel\tests\modules\orcaflex\orcaflex_post_process\orcaflex_test1.sim</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -578,17 +574,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>k:/github/digitalmodel/tests/modules/orcaflex/orcaflex_post_process/orcaflex_test2.sim</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>K:\github\digitalmodel\tests\modules\orcaflex\orcaflex_post_process\orcaflex_test2.sim</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>k:/github/digitalmodel/tests/modules/orcaflex/orcaflex_post_process/orcaflex_test2.sim</t>
+          <t>K:\github\digitalmodel\tests\modules\orcaflex\orcaflex_post_process\orcaflex_test2.sim</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -626,6 +618,153 @@
         <v>229768.9188912698</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.534493803977966</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>270</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L4" t="n">
+        <v>270</v>
+      </c>
+      <c r="M4" t="n">
+        <v>582.89501953125</v>
+      </c>
+      <c r="N4" t="n">
+        <v>60.61721801758462</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.7723983686400165</v>
+      </c>
+      <c r="P4" t="n">
+        <v>229768.9188912698</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.534493803977966</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>270</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>270</v>
+      </c>
+      <c r="M5" t="n">
+        <v>582.89501953125</v>
+      </c>
+      <c r="N5" t="n">
+        <v>60.61721801758462</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.7723983686400165</v>
+      </c>
+      <c r="P5" t="n">
+        <v>229768.9188912698</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.534493803977966</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>270</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L6" t="n">
+        <v>270</v>
+      </c>
+      <c r="M6" t="n">
+        <v>582.89501953125</v>
+      </c>
+      <c r="N6" t="n">
+        <v>60.61721801758462</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.7723983686400165</v>
+      </c>
+      <c r="P6" t="n">
+        <v>229768.9188912698</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.534493803977966</v>
       </c>
     </row>
